--- a/test_data/Hill_curve_repeats.xlsx
+++ b/test_data/Hill_curve_repeats.xlsx
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="true"/>
-    <col min="2" max="2" width="6.36328125" customWidth="true"/>
-    <col min="3" max="3" width="9" customWidth="true"/>
-    <col min="4" max="4" width="11.453125" customWidth="true"/>
-    <col min="5" max="5" width="11.453125" customWidth="true"/>
-    <col min="6" max="6" width="11.453125" customWidth="true"/>
-    <col min="7" max="7" width="11.453125" customWidth="true"/>
-    <col min="8" max="8" width="11.453125" customWidth="true"/>
-    <col min="9" max="9" width="12.453125" customWidth="true"/>
+    <col min="1" max="1" width="6" customWidth="true"/>
+    <col min="2" max="2" width="7" customWidth="true"/>
+    <col min="3" max="3" width="9.85546875" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
